--- a/data/trans_dic/DC-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/DC-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09627891861557512</v>
+        <v>0.09688789166315585</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05364660841866602</v>
+        <v>0.05563364951181803</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07198058565206598</v>
+        <v>0.07182973748664503</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09548830139068082</v>
+        <v>0.09720077200414746</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1625626344428915</v>
+        <v>0.1633338437987413</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2059533164482291</v>
+        <v>0.2067816029935217</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2080018728655738</v>
+        <v>0.2033004830176657</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1831712000218058</v>
+        <v>0.1843724047480148</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1362112032226335</v>
+        <v>0.1391879908432689</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1410253829923255</v>
+        <v>0.1373127173541964</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1499825466411974</v>
+        <v>0.148040540352885</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1478211247955966</v>
+        <v>0.1476081146585059</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1785834039057727</v>
+        <v>0.176307716406114</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1244403223053988</v>
+        <v>0.1187101036835369</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1451851627749388</v>
+        <v>0.1490667241713537</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1668616154840071</v>
+        <v>0.1698678706949636</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2619051575325871</v>
+        <v>0.2649212913243418</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3190808113332768</v>
+        <v>0.3197850108550689</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3133507949303951</v>
+        <v>0.3045639146135209</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2607090311692301</v>
+        <v>0.2596201566381988</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1995443000618821</v>
+        <v>0.2018381344890922</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2066648774092676</v>
+        <v>0.2018280165481862</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2185017520635306</v>
+        <v>0.2162920276398377</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1968368917674681</v>
+        <v>0.1978263465683325</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.06172778371413074</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1921268868309717</v>
+        <v>0.1921268868309718</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.4485972665914488</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1770858157709592</v>
+        <v>0.1839334032449189</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04682757614760738</v>
+        <v>0.04748539211699566</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04304643561184392</v>
+        <v>0.04238809786570468</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1531172538258972</v>
+        <v>0.1543019329147588</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4077426985293343</v>
+        <v>0.3998463775303833</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1667049897262824</v>
+        <v>0.1672413550917502</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08497333410951972</v>
+        <v>0.08679252579226425</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3291055276708593</v>
+        <v>0.3307243528192033</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3075547570176629</v>
+        <v>0.3046689679083002</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1154467631323862</v>
+        <v>0.1139667854934382</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07021928522350747</v>
+        <v>0.06922484208270807</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2513800112837812</v>
+        <v>0.2523382415761574</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2556211941762259</v>
+        <v>0.2597181349198762</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09505393244696742</v>
+        <v>0.09914393997564039</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08619697555028745</v>
+        <v>0.08365398472114793</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2340339332526412</v>
+        <v>0.2361150732968498</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4903725057129824</v>
+        <v>0.487491001886569</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2406879325570756</v>
+        <v>0.2416801011837809</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.13898887104605</v>
+        <v>0.1423879677902821</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4074196389126989</v>
+        <v>0.4048218524964808</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3662033436951138</v>
+        <v>0.3666202561753902</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.159518057478228</v>
+        <v>0.1579747935589725</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1065863791191214</v>
+        <v>0.10647877494184</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3116739493771767</v>
+        <v>0.3089516583381173</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.1347434318697467</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.304378916401084</v>
+        <v>0.3043789164010839</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07215066140070085</v>
+        <v>0.073767723375293</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06121533182896748</v>
+        <v>0.05570317794459687</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05374837861663928</v>
+        <v>0.05473391360627433</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.185216561596644</v>
+        <v>0.1922471007760556</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1734756746811268</v>
+        <v>0.1691330110679124</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1589120724925051</v>
+        <v>0.1595230526673031</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1487435420800729</v>
+        <v>0.1473065645968767</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3335272611201646</v>
+        <v>0.3318566249520766</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1315998601478165</v>
+        <v>0.132474771077176</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1205891542771639</v>
+        <v>0.1164895074219778</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1091202416369465</v>
+        <v>0.1092600845289667</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2735806244565923</v>
+        <v>0.2753280657029203</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1442951532992526</v>
+        <v>0.1380175649801171</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1242411504629254</v>
+        <v>0.1177783864799448</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1138351484997967</v>
+        <v>0.1115265295589129</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2696080311682595</v>
+        <v>0.2776034752196759</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2576599352574453</v>
+        <v>0.2575094900367088</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2470665096254894</v>
+        <v>0.2475301968027032</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2373640963280637</v>
+        <v>0.2366221596077932</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4176882566251304</v>
+        <v>0.4191374922835966</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1880080946248033</v>
+        <v>0.1897916860805202</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1765516352385408</v>
+        <v>0.1741644838001564</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1619765009481633</v>
+        <v>0.1623188985387488</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3336719416770463</v>
+        <v>0.3381535245923844</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.2409559075610845</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.351068192865066</v>
+        <v>0.3510681928650661</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.209156224464533</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1606708395415425</v>
+        <v>0.1618657522664055</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08257345898196219</v>
+        <v>0.08256272212105513</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07605702303653103</v>
+        <v>0.07922778694551051</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1187768655502108</v>
+        <v>0.116832824942777</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1778222298897019</v>
+        <v>0.176267616954991</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.228630568820842</v>
+        <v>0.2304339619749831</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1976799771382189</v>
+        <v>0.1957602765298045</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3115805793914977</v>
+        <v>0.3076474591920369</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1811855288750221</v>
+        <v>0.1816063184155385</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1692047908660534</v>
+        <v>0.1686660779370719</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1481961262239307</v>
+        <v>0.1479829321133626</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2298185222481831</v>
+        <v>0.2307336783836868</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2495091106146864</v>
+        <v>0.2494600159025546</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1527031617144445</v>
+        <v>0.1514831534948059</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1432716685556351</v>
+        <v>0.1475032469451451</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2030128564406964</v>
+        <v>0.1997453463013137</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2617293885732093</v>
+        <v>0.2591708644890088</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3235993763832715</v>
+        <v>0.3214010212470315</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2888098618316511</v>
+        <v>0.2910716099432132</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3955138791784883</v>
+        <v>0.3995545854907254</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2391368963523146</v>
+        <v>0.2416004462127789</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2241107688253432</v>
+        <v>0.2267449420249176</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.204153969457655</v>
+        <v>0.2038231596298178</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.289871414124105</v>
+        <v>0.2922825641933193</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03852359892317529</v>
+        <v>0.04075124156887763</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1130727585443997</v>
+        <v>0.121163674919195</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07012250120760692</v>
+        <v>0.0746296367945945</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1369475750981922</v>
+        <v>0.1393447398141429</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1409755326519052</v>
+        <v>0.1401798490666439</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3233115652956821</v>
+        <v>0.3199848273016664</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1514616763898045</v>
+        <v>0.1505023423379482</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2943846349940251</v>
+        <v>0.2953940155791214</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09980288221892579</v>
+        <v>0.1030977430767114</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2423273763826845</v>
+        <v>0.2380505605354784</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1205749572688599</v>
+        <v>0.1219777825188796</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2348288691746116</v>
+        <v>0.2332186546675585</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1123022554707748</v>
+        <v>0.1082623334618007</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2248051163225851</v>
+        <v>0.2311328135077293</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1594704940247768</v>
+        <v>0.1579215553222098</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2272662275497681</v>
+        <v>0.2260456199706165</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2565304983820913</v>
+        <v>0.2516386163806703</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.458985508070457</v>
+        <v>0.4572594329502839</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2596738484796699</v>
+        <v>0.2563972061199574</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.383043547224497</v>
+        <v>0.3841486172024614</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1699119553798417</v>
+        <v>0.1725547197363832</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3292517472803717</v>
+        <v>0.3283564693506164</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1905438869546579</v>
+        <v>0.1942454227482757</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2985594815709148</v>
+        <v>0.2947284262998914</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.1531059275556033</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.4345616462122906</v>
+        <v>0.4345616462122904</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2169862614313791</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1225666095560795</v>
+        <v>0.1235343400940411</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1106464108138796</v>
+        <v>0.1102100002084952</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.06603533179217043</v>
+        <v>0.06647492267145026</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2324666328065143</v>
+        <v>0.2356646770121285</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2245668135862428</v>
+        <v>0.2177446743492688</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2182896090459772</v>
+        <v>0.2211168284027942</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1104973190993487</v>
+        <v>0.1143637249402846</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3821007362122461</v>
+        <v>0.3841093848946007</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.185582290386707</v>
+        <v>0.1863160183702205</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1783328168173027</v>
+        <v>0.1819691080664539</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.0995769059584439</v>
+        <v>0.100377339729853</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3207296169193596</v>
+        <v>0.3229300541625628</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2084231950069474</v>
+        <v>0.2115318129950756</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2019435420418925</v>
+        <v>0.2008930698441424</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1448850334847579</v>
+        <v>0.1408914139487772</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3264638967498675</v>
+        <v>0.3313294291047831</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3264938366731156</v>
+        <v>0.3194865275596901</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.325270885693615</v>
+        <v>0.3311137149170481</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1987472828063802</v>
+        <v>0.2076506450003626</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4817069691089387</v>
+        <v>0.479841675512962</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2531970547138593</v>
+        <v>0.2522363304806864</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2495732962661237</v>
+        <v>0.2527071940170036</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1586917479568137</v>
+        <v>0.1607469761747554</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3894227629747837</v>
+        <v>0.3916800262813055</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1361623552029902</v>
+        <v>0.13541969016567</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09702560694702221</v>
+        <v>0.0978130937091999</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08467987301868539</v>
+        <v>0.08712021432100592</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2733995691841611</v>
+        <v>0.275148553604391</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1753029875696887</v>
+        <v>0.1759566811697054</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2308550134400258</v>
+        <v>0.2298175180684325</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1879732055993712</v>
+        <v>0.1902817831622647</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5376414807120511</v>
+        <v>0.5352255453523712</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1616846078397849</v>
+        <v>0.161737126978714</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1731065656513422</v>
+        <v>0.1741766525839896</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1460926564685823</v>
+        <v>0.1452284795849347</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4192958261944661</v>
+        <v>0.4155693385955163</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1956894569499097</v>
+        <v>0.1962105982139314</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1505604108273386</v>
+        <v>0.1498711504136594</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1355115450717518</v>
+        <v>0.136479220443762</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3513448623927979</v>
+        <v>0.3536487983579312</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2392553864759682</v>
+        <v>0.2341858701572906</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3014454734270086</v>
+        <v>0.3023932151559093</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2539385240676319</v>
+        <v>0.2551886821709255</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6014680479852899</v>
+        <v>0.6017096948508168</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2057753400619927</v>
+        <v>0.2070020036489102</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2163430221651718</v>
+        <v>0.2198649150514901</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1872538799556784</v>
+        <v>0.1866314865744</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.472269812369329</v>
+        <v>0.4710535314281539</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1925869580850539</v>
+        <v>0.1892429628488127</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.06821258785468132</v>
+        <v>0.06840630104589633</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.07553636324068766</v>
+        <v>0.07445038501136422</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1607357323619944</v>
+        <v>0.1588696154996487</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3013002396002735</v>
+        <v>0.3036920553105898</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1521374279655479</v>
+        <v>0.1537496182356612</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.127697926198252</v>
+        <v>0.1285681263162234</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.292013410957384</v>
+        <v>0.292836609402635</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2597055861437476</v>
+        <v>0.2578344064838455</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1178890580402686</v>
+        <v>0.1169204892419459</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1102968207809395</v>
+        <v>0.1075888254567678</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.234653199746165</v>
+        <v>0.2332374770823062</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.255116372042042</v>
+        <v>0.2509010388491568</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.109527749834153</v>
+        <v>0.1094721125482374</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1192126413116712</v>
+        <v>0.1199674931104496</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2155206819626089</v>
+        <v>0.2133329729908114</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3717499316892986</v>
+        <v>0.3699384251064424</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2103488597451098</v>
+        <v>0.2117295463659986</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1826646439900348</v>
+        <v>0.1851737658451634</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3472889845406171</v>
+        <v>0.350698974913851</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3048225825017004</v>
+        <v>0.303507650572767</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1523801628314388</v>
+        <v>0.153716221764122</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1427454294954372</v>
+        <v>0.1426066605881896</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2759844717539644</v>
+        <v>0.273361931302041</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.1837136657317105</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.3877129738681967</v>
+        <v>0.3877129738681966</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.2276724961502341</v>
@@ -1785,7 +1785,7 @@
         <v>0.1402056702677319</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.3034885700049371</v>
+        <v>0.303488570004937</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1618905206920286</v>
+        <v>0.1623923853002687</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.09274593235727234</v>
+        <v>0.09318274472827312</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.08489511817318612</v>
+        <v>0.08459110705968514</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1996089109301466</v>
+        <v>0.2002346703699719</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2616413171511848</v>
+        <v>0.2639099896210026</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2252857143639886</v>
+        <v>0.2242438238234551</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1703530002200377</v>
+        <v>0.1709277758779724</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3732548666527935</v>
+        <v>0.3738224161211947</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2176820189290559</v>
+        <v>0.2171723100018029</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1625804162837814</v>
+        <v>0.1626412722410276</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1313371026992236</v>
+        <v>0.1310625261834298</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.2931016888335747</v>
+        <v>0.2923752607288115</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1892878605079261</v>
+        <v>0.1891724274415356</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1129752850268261</v>
+        <v>0.1151460369751412</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1051954841745652</v>
+        <v>0.104915893938298</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.229396527032091</v>
+        <v>0.2282088576421719</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2932478552859332</v>
+        <v>0.2941929418440574</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2526860647068042</v>
+        <v>0.2532573445066812</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1967936456061708</v>
+        <v>0.1983637503367362</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.4009704350426853</v>
+        <v>0.4006428576963683</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2389368517180863</v>
+        <v>0.2376845745391781</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1811797765770529</v>
+        <v>0.1810818175281363</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1486946617825156</v>
+        <v>0.1478971751330503</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.3142656934689764</v>
+        <v>0.3122357271449897</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>26285</v>
+        <v>26451</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15812</v>
+        <v>16397</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>21145</v>
+        <v>21101</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>30446</v>
+        <v>30992</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>42403</v>
+        <v>42604</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>59159</v>
+        <v>59397</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>60051</v>
+        <v>58693</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>57893</v>
+        <v>58273</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>72716</v>
+        <v>74305</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>82074</v>
+        <v>79914</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>87359</v>
+        <v>86228</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>93853</v>
+        <v>93717</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>48755</v>
+        <v>48134</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>36677</v>
+        <v>34988</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>42650</v>
+        <v>43790</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>53203</v>
+        <v>54162</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>68315</v>
+        <v>69102</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>91654</v>
+        <v>91857</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>90465</v>
+        <v>87929</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>82400</v>
+        <v>82056</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>106526</v>
+        <v>107751</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>120275</v>
+        <v>117460</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>127269</v>
+        <v>125982</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>124973</v>
+        <v>125601</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>87317</v>
+        <v>90693</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>23673</v>
+        <v>24005</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21634</v>
+        <v>21303</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>81251</v>
+        <v>81880</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>205482</v>
+        <v>201502</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>87314</v>
+        <v>87595</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>44448</v>
+        <v>45400</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>179854</v>
+        <v>180739</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>306639</v>
+        <v>303762</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>118828</v>
+        <v>117305</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>72021</v>
+        <v>71001</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>270772</v>
+        <v>271804</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>126040</v>
+        <v>128061</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>48052</v>
+        <v>50120</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>43320</v>
+        <v>42042</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>124189</v>
+        <v>125294</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>247123</v>
+        <v>245671</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>126064</v>
+        <v>126584</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>72703</v>
+        <v>74481</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>222652</v>
+        <v>221233</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>365114</v>
+        <v>365529</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>164191</v>
+        <v>162602</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>109321</v>
+        <v>109211</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>335717</v>
+        <v>332784</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>23005</v>
+        <v>23521</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>19837</v>
+        <v>18050</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>17122</v>
+        <v>17436</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>58527</v>
+        <v>60749</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>58186</v>
+        <v>56729</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>54192</v>
+        <v>54401</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>50024</v>
+        <v>49541</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>118863</v>
+        <v>118267</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>86100</v>
+        <v>86673</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>80200</v>
+        <v>77473</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>71460</v>
+        <v>71552</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>183949</v>
+        <v>185124</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>46008</v>
+        <v>44006</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>40260</v>
+        <v>38166</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>36264</v>
+        <v>35528</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>85194</v>
+        <v>87721</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>86422</v>
+        <v>86372</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>84255</v>
+        <v>84413</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>79828</v>
+        <v>79578</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>148856</v>
+        <v>149373</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>123006</v>
+        <v>124173</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>117418</v>
+        <v>115831</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>106074</v>
+        <v>106298</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>224353</v>
+        <v>227366</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>57628</v>
+        <v>58057</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>30881</v>
+        <v>30877</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>28138</v>
+        <v>29311</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>44321</v>
+        <v>43596</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>66053</v>
+        <v>65476</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>88926</v>
+        <v>89628</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>76558</v>
+        <v>75815</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>131475</v>
+        <v>129815</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>132288</v>
+        <v>132596</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>129092</v>
+        <v>128681</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>112221</v>
+        <v>112060</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>182730</v>
+        <v>183458</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>89492</v>
+        <v>89474</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>57108</v>
+        <v>56652</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>53005</v>
+        <v>54571</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>75753</v>
+        <v>74534</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>97221</v>
+        <v>96271</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>125864</v>
+        <v>125009</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>111851</v>
+        <v>112727</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>166891</v>
+        <v>168596</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>174600</v>
+        <v>176399</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>170982</v>
+        <v>172991</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>154595</v>
+        <v>154344</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>230479</v>
+        <v>232396</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7832</v>
+        <v>8285</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>24041</v>
+        <v>25762</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>14811</v>
+        <v>15763</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>28165</v>
+        <v>28658</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>29276</v>
+        <v>29111</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>70996</v>
+        <v>70266</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>33108</v>
+        <v>32898</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>67390</v>
+        <v>67621</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>41017</v>
+        <v>42371</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>104736</v>
+        <v>102888</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>51824</v>
+        <v>52427</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>102052</v>
+        <v>101353</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>22832</v>
+        <v>22011</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>47798</v>
+        <v>49143</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>33684</v>
+        <v>33356</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>46741</v>
+        <v>46490</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>53273</v>
+        <v>52257</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>100789</v>
+        <v>100410</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>56761</v>
+        <v>56045</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>87686</v>
+        <v>87939</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>69830</v>
+        <v>70916</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>142306</v>
+        <v>141919</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>81897</v>
+        <v>83488</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>129749</v>
+        <v>128084</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>33192</v>
+        <v>33454</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>30315</v>
+        <v>30195</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>17375</v>
+        <v>17491</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>62930</v>
+        <v>63796</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>62462</v>
+        <v>60564</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>61128</v>
+        <v>61920</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>30178</v>
+        <v>31234</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>100779</v>
+        <v>101309</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>101876</v>
+        <v>102279</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>98799</v>
+        <v>100813</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>53397</v>
+        <v>53826</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>171416</v>
+        <v>172592</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>56443</v>
+        <v>57285</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>55329</v>
+        <v>55041</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>38123</v>
+        <v>37072</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>88376</v>
+        <v>89693</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>90812</v>
+        <v>88863</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>91086</v>
+        <v>92722</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>54281</v>
+        <v>56713</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>127050</v>
+        <v>126558</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>138994</v>
+        <v>138466</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>138267</v>
+        <v>140003</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>85097</v>
+        <v>86199</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>208130</v>
+        <v>209336</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>83744</v>
+        <v>83287</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>64307</v>
+        <v>64829</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>55597</v>
+        <v>57199</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>196762</v>
+        <v>198021</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>111882</v>
+        <v>112299</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>160179</v>
+        <v>159460</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>129945</v>
+        <v>131541</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>415090</v>
+        <v>413225</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>202631</v>
+        <v>202696</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>234843</v>
+        <v>236295</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>196911</v>
+        <v>195746</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>625482</v>
+        <v>619923</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>120354</v>
+        <v>120675</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>99790</v>
+        <v>99333</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>88971</v>
+        <v>89607</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>252858</v>
+        <v>254516</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>152697</v>
+        <v>149462</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>209159</v>
+        <v>209816</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>175546</v>
+        <v>176410</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>464368</v>
+        <v>464554</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>257887</v>
+        <v>259424</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>293500</v>
+        <v>298278</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>252391</v>
+        <v>251552</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>704506</v>
+        <v>702691</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>143245</v>
+        <v>140758</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>53144</v>
+        <v>53295</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>58811</v>
+        <v>57966</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>128279</v>
+        <v>126789</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>236072</v>
+        <v>237946</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>125339</v>
+        <v>126667</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>105500</v>
+        <v>106219</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>242760</v>
+        <v>243444</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>396650</v>
+        <v>393792</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>188970</v>
+        <v>187418</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>176999</v>
+        <v>172653</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>382345</v>
+        <v>380038</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>189754</v>
+        <v>186619</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>85333</v>
+        <v>85290</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>92817</v>
+        <v>93405</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>172001</v>
+        <v>170255</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>291270</v>
+        <v>289851</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>173297</v>
+        <v>174434</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>150912</v>
+        <v>152984</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>288712</v>
+        <v>291547</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>465557</v>
+        <v>463549</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>244258</v>
+        <v>246400</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>229071</v>
+        <v>228848</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>449690</v>
+        <v>445417</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>530441</v>
+        <v>532086</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>317820</v>
+        <v>319317</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>288164</v>
+        <v>287132</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>705171</v>
+        <v>707381</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>884138</v>
+        <v>891804</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>801636</v>
+        <v>797929</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>603823</v>
+        <v>605861</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1394836</v>
+        <v>1396957</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1448835</v>
+        <v>1445443</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1135639</v>
+        <v>1136064</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>911334</v>
+        <v>909429</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>2130766</v>
+        <v>2125485</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>620210</v>
+        <v>619832</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>387141</v>
+        <v>394580</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>357070</v>
+        <v>356121</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>810403</v>
+        <v>806208</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>990942</v>
+        <v>994136</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>899135</v>
+        <v>901168</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>697543</v>
+        <v>703109</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1498408</v>
+        <v>1497184</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1590302</v>
+        <v>1581967</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1265557</v>
+        <v>1264872</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1031776</v>
+        <v>1026243</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>2284622</v>
+        <v>2269865</v>
       </c>
     </row>
     <row r="40">
